--- a/data/trans_bre/P1435_2011_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1435_2011_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>2.811825805600425</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.659135428077827</v>
+        <v>6.659135428077826</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>9.420697236967522</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>4.625499887830131</v>
+        <v>4.62549988783013</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.485693543764131</v>
+        <v>1.576071745090037</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.837919454398341</v>
+        <v>4.898235684906017</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.9547292467646603</v>
+        <v>1.417714600621384</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>2.088461199587759</v>
+        <v>2.233461770554865</v>
       </c>
     </row>
     <row r="6">
@@ -629,14 +629,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.718378749714927</v>
+        <v>4.5809648135968</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.517719774515321</v>
+        <v>8.421473703077012</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>10.12418271093029</v>
+        <v>8.944344345033921</v>
       </c>
     </row>
     <row r="7">
@@ -671,14 +671,14 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.973432688449044</v>
+        <v>3.0315953084868</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.632667115290837</v>
+        <v>5.492283951608584</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>2.386171422996902</v>
+        <v>2.168017760724775</v>
       </c>
     </row>
     <row r="9">
@@ -689,14 +689,14 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.545881347170351</v>
+        <v>5.625919436205929</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.924538524252908</v>
+        <v>8.706396148865721</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>8.272026436580433</v>
+        <v>8.330715390514881</v>
       </c>
     </row>
     <row r="10">
@@ -731,16 +731,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.67608532585901</v>
+        <v>1.730702487320978</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.845498257027815</v>
+        <v>6.087092134693776</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1.243433397515519</v>
+        <v>1.236578181089464</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>3.321548964470686</v>
+        <v>4.003532841832675</v>
       </c>
     </row>
     <row r="12">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.60262291037572</v>
+        <v>4.889832140979656</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.787019305009672</v>
+        <v>9.91464591125057</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>27.3329095296488</v>
+        <v>25.00475792823411</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>21.82366617241344</v>
+        <v>26.04568725734458</v>
       </c>
     </row>
     <row r="13">
@@ -795,16 +795,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.737258853685109</v>
+        <v>1.740640165848302</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.216009562210819</v>
+        <v>5.052280344312797</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.979817050824352</v>
+        <v>1.865861252727886</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.356980547144695</v>
+        <v>1.296059304037768</v>
       </c>
     </row>
     <row r="15">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.133620092983261</v>
+        <v>4.166639347003811</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.023585789300071</v>
+        <v>8.925077244774801</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24.5766742855965</v>
+        <v>30.15944762755099</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.026450873273105</v>
+        <v>5.072582916775865</v>
       </c>
     </row>
     <row r="16">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.668742439141641</v>
+        <v>2.529346697318162</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.368526619180908</v>
+        <v>6.348960042465214</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>5.100598689615818</v>
+        <v>5.039374608617993</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>3.035456442489962</v>
+        <v>2.997770141014504</v>
       </c>
     </row>
     <row r="18">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.010120808495263</v>
+        <v>3.942646945229833</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.291306058003597</v>
+        <v>8.148459837820536</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22.07076398978082</v>
+        <v>20.62579090336838</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6.252297723590829</v>
+        <v>5.932814654294209</v>
       </c>
     </row>
     <row r="19">
